--- a/biology/Botanique/Sobralia/Sobralia.xlsx
+++ b/biology/Botanique/Sobralia/Sobralia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sobralia est un genre composé de 125 espèces d'orchidées (Orchidaceae), faisant partie, selon les classifications, soit de la tribu des Sobralieae, soit de la sous-tribu des Sobraliinae (cette dernière regroupant le genre Elleanthus).
 Ces orchidées dénommées les sobralies sont natives du Mexique, d'Amérique centrale, et d'Amérique du Sud. Elles sont principalement terrestres, mais peuvent aussi affecter un comportement épiphyte, dans les forêts humides.
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sobralia allenii L.O.Williams 1942.
 Sobralia altissima D.E.Benn. &amp; Christenson 1999.
